--- a/dataAnalysis/fromZero/data/pandas06_iris.xlsx
+++ b/dataAnalysis/fromZero/data/pandas06_iris.xlsx
@@ -5,107 +5,203 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRespository\MyCloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRespository\MyCloud\dataAnalysis\fromZero\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pandas06_iris" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
+  <si>
+    <t>Iris-setosa</t>
+  </si>
+  <si>
+    <t>Iris-versicolor</t>
+  </si>
+  <si>
+    <t>Iris-virginica</t>
+  </si>
   <si>
     <t>Sepal.Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Sepal.Width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Petal.Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Petal.Width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Species</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setosa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -119,15 +215,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,22 +404,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,119 +965,2590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4.7</v>
+      </c>
+      <c r="B4">
+        <v>3.2</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>3.1</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5.4</v>
+      </c>
+      <c r="B7">
+        <v>3.9</v>
+      </c>
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B8">
+        <v>3.4</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3.4</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10">
+        <v>2.9</v>
+      </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B11">
+        <v>3.1</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>5.4</v>
+      </c>
+      <c r="B12">
+        <v>3.7</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>4.8</v>
+      </c>
+      <c r="B13">
+        <v>3.4</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4.8</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1.4</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>4.3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>5.8</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>5.7</v>
+      </c>
+      <c r="B17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>5.4</v>
+      </c>
+      <c r="B18">
+        <v>3.9</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B19">
         <v>3.5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="C19">
+        <v>1.4</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5.7</v>
+      </c>
+      <c r="B20">
+        <v>3.8</v>
+      </c>
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21">
+        <v>3.8</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>5.4</v>
+      </c>
+      <c r="B22">
+        <v>3.4</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23">
+        <v>3.7</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B24">
+        <v>3.6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25">
+        <v>3.3</v>
+      </c>
+      <c r="C25">
+        <v>1.7</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>4.8</v>
+      </c>
+      <c r="B26">
+        <v>3.4</v>
+      </c>
+      <c r="C26">
+        <v>1.9</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1.6</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3.4</v>
+      </c>
+      <c r="C28">
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <v>0.4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>5.2</v>
+      </c>
+      <c r="B29">
+        <v>3.5</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>5.2</v>
+      </c>
+      <c r="B30">
+        <v>3.4</v>
+      </c>
+      <c r="C30">
+        <v>1.4</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>4.7</v>
+      </c>
+      <c r="B31">
+        <v>3.2</v>
+      </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4.8</v>
+      </c>
+      <c r="B32">
+        <v>3.1</v>
+      </c>
+      <c r="C32">
+        <v>1.6</v>
+      </c>
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>5.4</v>
+      </c>
+      <c r="B33">
+        <v>3.4</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>0.4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>5.2</v>
+      </c>
+      <c r="B34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>5.5</v>
+      </c>
+      <c r="B35">
+        <v>4.2</v>
+      </c>
+      <c r="C35">
+        <v>1.4</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B36">
+        <v>3.1</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="B37">
+        <v>3.2</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>5.5</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>1.3</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B39">
+        <v>3.1</v>
+      </c>
+      <c r="C39">
+        <v>1.5</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1.3</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B41">
+        <v>3.4</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>3.5</v>
+      </c>
+      <c r="C42">
+        <v>1.3</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4.5</v>
+      </c>
+      <c r="B43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C43">
+        <v>1.3</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B44">
+        <v>3.2</v>
+      </c>
+      <c r="C44">
+        <v>1.3</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>3.5</v>
+      </c>
+      <c r="C45">
+        <v>1.6</v>
+      </c>
+      <c r="D45">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B46">
+        <v>3.8</v>
+      </c>
+      <c r="C46">
+        <v>1.9</v>
+      </c>
+      <c r="D46">
+        <v>0.4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>4.8</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>1.4</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B48">
+        <v>3.8</v>
+      </c>
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B49">
+        <v>3.2</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>5.3</v>
+      </c>
+      <c r="B50">
+        <v>3.7</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>3.3</v>
+      </c>
+      <c r="C51">
+        <v>1.4</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>3.2</v>
+      </c>
+      <c r="C52">
         <v>4.7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D52">
+        <v>1.4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>6.4</v>
+      </c>
+      <c r="B53">
+        <v>3.2</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+      <c r="D53">
+        <v>1.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>6.9</v>
+      </c>
+      <c r="B54">
+        <v>3.1</v>
+      </c>
+      <c r="C54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>5.5</v>
+      </c>
+      <c r="B55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1.3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>6.5</v>
+      </c>
+      <c r="B56">
+        <v>2.8</v>
+      </c>
+      <c r="C56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>5.7</v>
+      </c>
+      <c r="B57">
+        <v>2.8</v>
+      </c>
+      <c r="C57">
+        <v>4.5</v>
+      </c>
+      <c r="D57">
+        <v>1.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>6.3</v>
+      </c>
+      <c r="B58">
+        <v>3.3</v>
+      </c>
+      <c r="C58">
+        <v>4.7</v>
+      </c>
+      <c r="D58">
+        <v>1.6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B59">
+        <v>2.4</v>
+      </c>
+      <c r="C59">
+        <v>3.3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>6.6</v>
+      </c>
+      <c r="B60">
+        <v>2.9</v>
+      </c>
+      <c r="C60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D60">
+        <v>1.3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>5.2</v>
+      </c>
+      <c r="B61">
+        <v>2.7</v>
+      </c>
+      <c r="C61">
+        <v>3.9</v>
+      </c>
+      <c r="D61">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3.5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>5.9</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>4.2</v>
+      </c>
+      <c r="D63">
+        <v>1.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="B64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>6.1</v>
+      </c>
+      <c r="B65">
+        <v>2.9</v>
+      </c>
+      <c r="C65">
+        <v>4.7</v>
+      </c>
+      <c r="D65">
+        <v>1.4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>5.6</v>
+      </c>
+      <c r="B66">
+        <v>2.9</v>
+      </c>
+      <c r="C66">
+        <v>3.6</v>
+      </c>
+      <c r="D66">
+        <v>1.3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>6.7</v>
+      </c>
+      <c r="B67">
+        <v>3.1</v>
+      </c>
+      <c r="C67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D67">
+        <v>1.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>5.6</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4.5</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>5.8</v>
+      </c>
+      <c r="B69">
+        <v>2.7</v>
+      </c>
+      <c r="C69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>6.2</v>
+      </c>
+      <c r="B70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>5.6</v>
+      </c>
+      <c r="B71">
+        <v>2.5</v>
+      </c>
+      <c r="C71">
+        <v>3.9</v>
+      </c>
+      <c r="D71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>5.9</v>
+      </c>
+      <c r="B72">
+        <v>3.2</v>
+      </c>
+      <c r="C72">
+        <v>4.8</v>
+      </c>
+      <c r="D72">
+        <v>1.8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>6.1</v>
+      </c>
+      <c r="B73">
+        <v>2.8</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>6.3</v>
+      </c>
+      <c r="B74">
+        <v>2.5</v>
+      </c>
+      <c r="C74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D74">
+        <v>1.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>6.1</v>
+      </c>
+      <c r="B75">
+        <v>2.8</v>
+      </c>
+      <c r="C75">
+        <v>4.7</v>
+      </c>
+      <c r="D75">
+        <v>1.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>6.4</v>
+      </c>
+      <c r="B76">
+        <v>2.9</v>
+      </c>
+      <c r="C76">
+        <v>4.3</v>
+      </c>
+      <c r="D76">
+        <v>1.3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>6.6</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D77">
+        <v>1.4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>6.8</v>
+      </c>
+      <c r="B78">
+        <v>2.8</v>
+      </c>
+      <c r="C78">
+        <v>4.8</v>
+      </c>
+      <c r="D78">
+        <v>1.4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>6.7</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>1.7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>2.9</v>
+      </c>
+      <c r="C80">
+        <v>4.5</v>
+      </c>
+      <c r="D80">
+        <v>1.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>5.7</v>
+      </c>
+      <c r="B81">
+        <v>2.6</v>
+      </c>
+      <c r="C81">
+        <v>3.5</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>5.5</v>
+      </c>
+      <c r="B82">
+        <v>2.4</v>
+      </c>
+      <c r="C82">
+        <v>3.8</v>
+      </c>
+      <c r="D82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>5.5</v>
+      </c>
+      <c r="B83">
+        <v>2.4</v>
+      </c>
+      <c r="C83">
+        <v>3.7</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>5.8</v>
+      </c>
+      <c r="B84">
+        <v>2.7</v>
+      </c>
+      <c r="C84">
+        <v>3.9</v>
+      </c>
+      <c r="D84">
+        <v>1.2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>2.7</v>
+      </c>
+      <c r="C85">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D85">
+        <v>1.6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>5.4</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>4.5</v>
+      </c>
+      <c r="D86">
+        <v>1.5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>3.4</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87">
+        <v>1.6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>6.7</v>
+      </c>
+      <c r="B88">
+        <v>3.1</v>
+      </c>
+      <c r="C88">
+        <v>4.7</v>
+      </c>
+      <c r="D88">
+        <v>1.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>6.3</v>
+      </c>
+      <c r="B89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D89">
+        <v>1.3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>5.6</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>1.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>5.5</v>
+      </c>
+      <c r="B91">
+        <v>2.5</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1.3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>5.5</v>
+      </c>
+      <c r="B92">
+        <v>2.6</v>
+      </c>
+      <c r="C92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D92">
+        <v>1.2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>6.1</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="D93">
+        <v>1.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>5.8</v>
+      </c>
+      <c r="B94">
+        <v>2.6</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1.2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
+      <c r="B95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C95">
+        <v>3.3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>5.6</v>
+      </c>
+      <c r="B96">
+        <v>2.7</v>
+      </c>
+      <c r="C96">
+        <v>4.2</v>
+      </c>
+      <c r="D96">
+        <v>1.3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>5.7</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>4.2</v>
+      </c>
+      <c r="D97">
+        <v>1.2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>5.7</v>
+      </c>
+      <c r="B98">
+        <v>2.9</v>
+      </c>
+      <c r="C98">
+        <v>4.2</v>
+      </c>
+      <c r="D98">
+        <v>1.3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>6.2</v>
+      </c>
+      <c r="B99">
+        <v>2.9</v>
+      </c>
+      <c r="C99">
+        <v>4.3</v>
+      </c>
+      <c r="D99">
+        <v>1.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B100">
+        <v>2.5</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>5.7</v>
+      </c>
+      <c r="B101">
+        <v>2.8</v>
+      </c>
+      <c r="C101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D101">
+        <v>1.3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>6.3</v>
+      </c>
+      <c r="B102">
+        <v>3.3</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>2.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>5.8</v>
+      </c>
+      <c r="B103">
+        <v>2.7</v>
+      </c>
+      <c r="C103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D103">
+        <v>1.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>7.1</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>5.9</v>
+      </c>
+      <c r="D104">
+        <v>2.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>6.3</v>
+      </c>
+      <c r="B105">
+        <v>2.9</v>
+      </c>
+      <c r="C105">
+        <v>5.6</v>
+      </c>
+      <c r="D105">
+        <v>1.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>6.5</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>5.8</v>
+      </c>
+      <c r="D106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>7.6</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>6.6</v>
+      </c>
+      <c r="D107">
+        <v>2.1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B108">
+        <v>2.5</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>1.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>7.3</v>
+      </c>
+      <c r="B109">
+        <v>2.9</v>
+      </c>
+      <c r="C109">
+        <v>6.3</v>
+      </c>
+      <c r="D109">
+        <v>1.8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>6.7</v>
+      </c>
+      <c r="B110">
+        <v>2.5</v>
+      </c>
+      <c r="C110">
+        <v>5.8</v>
+      </c>
+      <c r="D110">
+        <v>1.8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>7.2</v>
+      </c>
+      <c r="B111">
+        <v>3.6</v>
+      </c>
+      <c r="C111">
+        <v>6.1</v>
+      </c>
+      <c r="D111">
+        <v>2.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>6.5</v>
+      </c>
+      <c r="B112">
+        <v>3.2</v>
+      </c>
+      <c r="C112">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>6.4</v>
+      </c>
+      <c r="B113">
+        <v>2.7</v>
+      </c>
+      <c r="C113">
+        <v>5.3</v>
+      </c>
+      <c r="D113">
+        <v>1.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>6.8</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>5.5</v>
+      </c>
+      <c r="D114">
+        <v>2.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>5.7</v>
+      </c>
+      <c r="B115">
+        <v>2.5</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>5.8</v>
+      </c>
+      <c r="B116">
+        <v>2.8</v>
+      </c>
+      <c r="C116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D116">
+        <v>2.4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>6.4</v>
+      </c>
+      <c r="B117">
+        <v>3.2</v>
+      </c>
+      <c r="C117">
+        <v>5.3</v>
+      </c>
+      <c r="D117">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>6.5</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>5.5</v>
+      </c>
+      <c r="D118">
+        <v>1.8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>7.7</v>
+      </c>
+      <c r="B119">
+        <v>3.8</v>
+      </c>
+      <c r="C119">
+        <v>6.7</v>
+      </c>
+      <c r="D119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>7.7</v>
+      </c>
+      <c r="B120">
+        <v>2.6</v>
+      </c>
+      <c r="C120">
+        <v>6.9</v>
+      </c>
+      <c r="D120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>1.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>6.9</v>
+      </c>
+      <c r="B122">
+        <v>3.2</v>
+      </c>
+      <c r="C122">
+        <v>5.7</v>
+      </c>
+      <c r="D122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>5.6</v>
+      </c>
+      <c r="B123">
+        <v>2.8</v>
+      </c>
+      <c r="C123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>7.7</v>
+      </c>
+      <c r="B124">
+        <v>2.8</v>
+      </c>
+      <c r="C124">
+        <v>6.7</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>6.3</v>
+      </c>
+      <c r="B125">
+        <v>2.7</v>
+      </c>
+      <c r="C125">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D125">
+        <v>1.8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>6.7</v>
+      </c>
+      <c r="B126">
+        <v>3.3</v>
+      </c>
+      <c r="C126">
+        <v>5.7</v>
+      </c>
+      <c r="D126">
+        <v>2.1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>7.2</v>
+      </c>
+      <c r="B127">
+        <v>3.2</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>1.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>6.2</v>
+      </c>
+      <c r="B128">
+        <v>2.8</v>
+      </c>
+      <c r="C128">
+        <v>4.8</v>
+      </c>
+      <c r="D128">
+        <v>1.8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>6.1</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D129">
+        <v>1.8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>6.4</v>
+      </c>
+      <c r="B130">
+        <v>2.8</v>
+      </c>
+      <c r="C130">
+        <v>5.6</v>
+      </c>
+      <c r="D130">
+        <v>2.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>7.2</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>5.8</v>
+      </c>
+      <c r="D131">
+        <v>1.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>7.4</v>
+      </c>
+      <c r="B132">
+        <v>2.8</v>
+      </c>
+      <c r="C132">
+        <v>6.1</v>
+      </c>
+      <c r="D132">
+        <v>1.9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>7.9</v>
+      </c>
+      <c r="B133">
+        <v>3.8</v>
+      </c>
+      <c r="C133">
+        <v>6.4</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>6.4</v>
+      </c>
+      <c r="B134">
+        <v>2.8</v>
+      </c>
+      <c r="C134">
+        <v>5.6</v>
+      </c>
+      <c r="D134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>6.3</v>
+      </c>
+      <c r="B135">
+        <v>2.8</v>
+      </c>
+      <c r="C135">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D135">
+        <v>1.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>6.1</v>
+      </c>
+      <c r="B136">
+        <v>2.6</v>
+      </c>
+      <c r="C136">
+        <v>5.6</v>
+      </c>
+      <c r="D136">
+        <v>1.4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>7.7</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>6.1</v>
+      </c>
+      <c r="D137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>6.3</v>
+      </c>
+      <c r="B138">
+        <v>3.4</v>
+      </c>
+      <c r="C138">
+        <v>5.6</v>
+      </c>
+      <c r="D138">
+        <v>2.4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>6.4</v>
+      </c>
+      <c r="B139">
+        <v>3.1</v>
+      </c>
+      <c r="C139">
+        <v>5.5</v>
+      </c>
+      <c r="D139">
+        <v>1.8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>4.8</v>
+      </c>
+      <c r="D140">
+        <v>1.8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>6.9</v>
+      </c>
+      <c r="B141">
+        <v>3.1</v>
+      </c>
+      <c r="C141">
+        <v>5.4</v>
+      </c>
+      <c r="D141">
+        <v>2.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>6.7</v>
+      </c>
+      <c r="B142">
+        <v>3.1</v>
+      </c>
+      <c r="C142">
+        <v>5.6</v>
+      </c>
+      <c r="D142">
+        <v>2.4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>6.9</v>
+      </c>
+      <c r="B143">
+        <v>3.1</v>
+      </c>
+      <c r="C143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>5.8</v>
+      </c>
+      <c r="B144">
+        <v>2.7</v>
+      </c>
+      <c r="C144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D144">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>6.8</v>
+      </c>
+      <c r="B145">
+        <v>3.2</v>
+      </c>
+      <c r="C145">
+        <v>5.9</v>
+      </c>
+      <c r="D145">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>6.7</v>
+      </c>
+      <c r="B146">
+        <v>3.3</v>
+      </c>
+      <c r="C146">
+        <v>5.7</v>
+      </c>
+      <c r="D146">
+        <v>2.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>6.7</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>5.2</v>
+      </c>
+      <c r="D147">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>6.3</v>
+      </c>
+      <c r="B148">
+        <v>2.5</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>6.5</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>5.2</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>6.2</v>
+      </c>
+      <c r="B150">
+        <v>3.4</v>
+      </c>
+      <c r="C150">
+        <v>5.4</v>
+      </c>
+      <c r="D150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>5.9</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D151">
+        <v>1.8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>